--- a/Relação_Funcionarios.xlsx
+++ b/Relação_Funcionarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipeveiga/Documents/Jupyter USP/Projetos/Email 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A729FCC-32E1-2F48-A509-76088060446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4D154-7B8E-4B44-86DD-8916B2360DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{10398770-EA64-6545-8604-5EFCEBF4FD2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13960" xr2:uid="{10398770-EA64-6545-8604-5EFCEBF4FD2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Funcionário</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>André Teixeira</t>
   </si>
@@ -48,18 +45,9 @@
     <t>Paula Gonçalves</t>
   </si>
   <si>
-    <t>Maria Vieira</t>
-  </si>
-  <si>
-    <t>Ricardo Schnaider</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Região</t>
-  </si>
-  <si>
     <t>AM</t>
   </si>
   <si>
@@ -73,16 +61,57 @@
   </si>
   <si>
     <t>SP</t>
+  </si>
+  <si>
+    <t>teixeira.andre2110@gmail.com</t>
+  </si>
+  <si>
+    <t>alves.pedro2110@gmail.com</t>
+  </si>
+  <si>
+    <t>João Traoré</t>
+  </si>
+  <si>
+    <t>goncalvespaula2110@yahoo.com</t>
+  </si>
+  <si>
+    <t>Antônio Nunez</t>
+  </si>
+  <si>
+    <t>nunez.antonio@yahoo.com</t>
+  </si>
+  <si>
+    <t>traore.joao2110@yahoo.com</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF5F6368"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,13 +134,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,66 +460,87 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{C4DE97EA-6055-2E42-A48D-8C7C26C3D62E}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{7288F602-A22A-5E40-843E-4A9B26BA06F8}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{F67F1866-F849-EE46-97BE-C171FF64F5A6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Relação_Funcionarios.xlsx
+++ b/Relação_Funcionarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipeveiga/Documents/Jupyter USP/Projetos/Email 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4D154-7B8E-4B44-86DD-8916B2360DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BBD557-255A-C641-A3E3-757E8F5CD0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13960" xr2:uid="{10398770-EA64-6545-8604-5EFCEBF4FD2C}"/>
   </bookViews>
@@ -72,15 +72,9 @@
     <t>João Traoré</t>
   </si>
   <si>
-    <t>goncalvespaula2110@yahoo.com</t>
-  </si>
-  <si>
     <t>Antônio Nunez</t>
   </si>
   <si>
-    <t>nunez.antonio@yahoo.com</t>
-  </si>
-  <si>
     <t>traore.joao2110@yahoo.com</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>nunez.antonio2110@yahoo.com</t>
+  </si>
+  <si>
+    <t>goncavespaula2110@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,13 +471,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.2">
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
